--- a/scenarios/sample_scenario.xlsx
+++ b/scenarios/sample_scenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takahiro IWASAKI\works\02.PG\python\06_DesktopApp\02_AutoWebTest\selenium\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6521133C-F1F4-4954-863F-E57DFE072BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F131B0A-64D4-4478-813E-155AD10A8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,6 +59,8 @@
 input
 wait
 assert_text
+hover
+hover_click
 から入力してください。
 </t>
         </r>
@@ -109,12 +111,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{50894DC9-AD96-4E7A-86EE-24CEF4CBEE7B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">コメント入力欄。どういったテストを実施してるのかを分かりやすくするための記載欄とする。
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
     <phoneticPr fontId="1"/>
@@ -200,6 +217,159 @@
   </si>
   <si>
     <t xml:space="preserve">regex:Welcome.*   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#__next XXXXXXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面にマウスカーソルを当てて、画面状態が変わることを確認するテストケース。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_007</t>
+  </si>
+  <si>
+    <t>Test_008</t>
+  </si>
+  <si>
+    <t>hover_click</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Selector値にhoverを実行し、hover後に表示される画面要素(Value)に対してクリックを行う。</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDを入力。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインパスワードを入力。</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタンを押下。</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5秒待機して、「ようこそ！」の文字列が表示されていることを確認する。</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valueに入力されている文字列が画面内に表示されていることを確認する。(※実際は含まれないので、Failedになることが期待値。)</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタンを押下。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -207,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +430,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,14 +479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,8 +490,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,113 +795,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.9140625" customWidth="1"/>
-    <col min="3" max="3" width="65.08203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.9140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.9140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="35.08203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="36">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="72">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="54">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
